--- a/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica.xlsx
+++ b/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -70,6 +70,9 @@
     <t>FBC Colorado</t>
   </si>
   <si>
+    <t>FBC Colorado II</t>
+  </si>
+  <si>
     <t>Fedato Futebol Clube</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t>lsauer fc</t>
   </si>
   <si>
-    <t>Luis lemes  inter</t>
+    <t>Luis lemes inter</t>
   </si>
   <si>
     <t>MAFRA MARTINS FC</t>
@@ -151,7 +154,7 @@
     <t>RHANKA DENTY FC25</t>
   </si>
   <si>
-    <t>Rolo Compressor  ZN</t>
+    <t>Rolo Compressor ZN</t>
   </si>
   <si>
     <t>RS Expressões da Arte</t>
@@ -245,6 +248,9 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/186283</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/1863710</t>
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/18642587</t>
@@ -747,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,7 +778,7 @@
         <v>117598</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -783,7 +789,7 @@
         <v>49355335</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -794,7 +800,7 @@
         <v>44574236</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -805,7 +811,7 @@
         <v>2602301</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -816,7 +822,7 @@
         <v>49852616</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -827,7 +833,7 @@
         <v>3914981</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -838,7 +844,7 @@
         <v>25748736</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -849,7 +855,7 @@
         <v>8707471</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -860,7 +866,7 @@
         <v>3851966</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -871,7 +877,7 @@
         <v>8319052</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -882,7 +888,7 @@
         <v>44536510</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -893,7 +899,7 @@
         <v>387186</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -904,7 +910,7 @@
         <v>20696550</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -915,7 +921,7 @@
         <v>50189029</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -926,7 +932,7 @@
         <v>186283</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -934,10 +940,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>18642587</v>
+        <v>1863710</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -945,10 +951,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>25565675</v>
+        <v>18642587</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -956,10 +962,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>18421230</v>
+        <v>25565675</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -967,10 +973,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>528730</v>
+        <v>18421230</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -978,10 +984,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>17887202</v>
+        <v>528730</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -989,10 +995,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1747619</v>
+        <v>17887202</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1000,10 +1006,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>13951133</v>
+        <v>1747619</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1011,10 +1017,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>18346776</v>
+        <v>13951133</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1022,10 +1028,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>18344271</v>
+        <v>18346776</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1033,10 +1039,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>44810918</v>
+        <v>18344271</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1044,10 +1050,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>20340994</v>
+        <v>44810918</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1055,10 +1061,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>4911779</v>
+        <v>20340994</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1066,10 +1072,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>25751748</v>
+        <v>4911779</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1077,10 +1083,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>25401606</v>
+        <v>25751748</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1088,10 +1094,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>49960687</v>
+        <v>25401606</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1099,10 +1105,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>14227419</v>
+        <v>49960687</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1110,10 +1116,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>3708025</v>
+        <v>14227419</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1121,10 +1127,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>14124559</v>
+        <v>3708025</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1132,10 +1138,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>2760207</v>
+        <v>14124559</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1143,10 +1149,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>48498051</v>
+        <v>2760207</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1154,10 +1160,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>25313333</v>
+        <v>48498051</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1165,10 +1171,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>47546604</v>
+        <v>25313333</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1176,10 +1182,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>9823692</v>
+        <v>47546604</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1187,10 +1193,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>18661583</v>
+        <v>9823692</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1198,10 +1204,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>3447341</v>
+        <v>18661583</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1209,10 +1215,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>3246608</v>
+        <v>3447341</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1220,10 +1226,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>29411306</v>
+        <v>3246608</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1231,10 +1237,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>18223508</v>
+        <v>29411306</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1242,10 +1248,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>896842</v>
+        <v>18223508</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1253,10 +1259,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>5823700</v>
+        <v>896842</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1264,10 +1270,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>29228373</v>
+        <v>5823700</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1275,10 +1281,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>25811332</v>
+        <v>29228373</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1286,10 +1292,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>1148959</v>
+        <v>25811332</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1297,10 +1303,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>13707047</v>
+        <v>1148959</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1308,10 +1314,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>4229593</v>
+        <v>13707047</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1319,10 +1325,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>47543456</v>
+        <v>4229593</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1330,10 +1336,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>49180400</v>
+        <v>47543456</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1341,10 +1347,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>212042</v>
+        <v>49180400</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1352,10 +1358,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>28676425</v>
+        <v>212042</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1363,10 +1369,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>479510</v>
+        <v>28676425</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1374,10 +1380,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>335716</v>
+        <v>479510</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1385,10 +1391,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1273719</v>
+        <v>335716</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1396,10 +1402,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>3424598</v>
+        <v>1273719</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1407,10 +1413,21 @@
         <v>61</v>
       </c>
       <c r="B60">
+        <v>3424598</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
         <v>14696986</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>120</v>
+      <c r="C61" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1430,50 +1447,51 @@
     <hyperlink ref="C14" r:id="rId13" location="!/time/20696550"/>
     <hyperlink ref="C15" r:id="rId14" location="!/time/50189029"/>
     <hyperlink ref="C16" r:id="rId15" location="!/time/186283"/>
-    <hyperlink ref="C17" r:id="rId16" location="!/time/18642587"/>
-    <hyperlink ref="C18" r:id="rId17" location="!/time/25565675"/>
-    <hyperlink ref="C19" r:id="rId18" location="!/time/18421230"/>
-    <hyperlink ref="C20" r:id="rId19" location="!/time/528730"/>
-    <hyperlink ref="C21" r:id="rId20" location="!/time/17887202"/>
-    <hyperlink ref="C22" r:id="rId21" location="!/time/1747619"/>
-    <hyperlink ref="C23" r:id="rId22" location="!/time/13951133"/>
-    <hyperlink ref="C24" r:id="rId23" location="!/time/18346776"/>
-    <hyperlink ref="C25" r:id="rId24" location="!/time/18344271"/>
-    <hyperlink ref="C26" r:id="rId25" location="!/time/44810918"/>
-    <hyperlink ref="C27" r:id="rId26" location="!/time/20340994"/>
-    <hyperlink ref="C28" r:id="rId27" location="!/time/4911779"/>
-    <hyperlink ref="C29" r:id="rId28" location="!/time/25751748"/>
-    <hyperlink ref="C30" r:id="rId29" location="!/time/25401606"/>
-    <hyperlink ref="C31" r:id="rId30" location="!/time/49960687"/>
-    <hyperlink ref="C32" r:id="rId31" location="!/time/14227419"/>
-    <hyperlink ref="C33" r:id="rId32" location="!/time/3708025"/>
-    <hyperlink ref="C34" r:id="rId33" location="!/time/14124559"/>
-    <hyperlink ref="C35" r:id="rId34" location="!/time/2760207"/>
-    <hyperlink ref="C36" r:id="rId35" location="!/time/48498051"/>
-    <hyperlink ref="C37" r:id="rId36" location="!/time/25313333"/>
-    <hyperlink ref="C38" r:id="rId37" location="!/time/47546604"/>
-    <hyperlink ref="C39" r:id="rId38" location="!/time/9823692"/>
-    <hyperlink ref="C40" r:id="rId39" location="!/time/18661583"/>
-    <hyperlink ref="C41" r:id="rId40" location="!/time/3447341"/>
-    <hyperlink ref="C42" r:id="rId41" location="!/time/3246608"/>
-    <hyperlink ref="C43" r:id="rId42" location="!/time/29411306"/>
-    <hyperlink ref="C44" r:id="rId43" location="!/time/18223508"/>
-    <hyperlink ref="C45" r:id="rId44" location="!/time/896842"/>
-    <hyperlink ref="C46" r:id="rId45" location="!/time/5823700"/>
-    <hyperlink ref="C47" r:id="rId46" location="!/time/29228373"/>
-    <hyperlink ref="C48" r:id="rId47" location="!/time/25811332"/>
-    <hyperlink ref="C49" r:id="rId48" location="!/time/1148959"/>
-    <hyperlink ref="C50" r:id="rId49" location="!/time/13707047"/>
-    <hyperlink ref="C51" r:id="rId50" location="!/time/4229593"/>
-    <hyperlink ref="C52" r:id="rId51" location="!/time/47543456"/>
-    <hyperlink ref="C53" r:id="rId52" location="!/time/49180400"/>
-    <hyperlink ref="C54" r:id="rId53" location="!/time/212042"/>
-    <hyperlink ref="C55" r:id="rId54" location="!/time/28676425"/>
-    <hyperlink ref="C56" r:id="rId55" location="!/time/479510"/>
-    <hyperlink ref="C57" r:id="rId56" location="!/time/335716"/>
-    <hyperlink ref="C58" r:id="rId57" location="!/time/1273719"/>
-    <hyperlink ref="C59" r:id="rId58" location="!/time/3424598"/>
-    <hyperlink ref="C60" r:id="rId59" location="!/time/14696986"/>
+    <hyperlink ref="C17" r:id="rId16" location="!/time/1863710"/>
+    <hyperlink ref="C18" r:id="rId17" location="!/time/18642587"/>
+    <hyperlink ref="C19" r:id="rId18" location="!/time/25565675"/>
+    <hyperlink ref="C20" r:id="rId19" location="!/time/18421230"/>
+    <hyperlink ref="C21" r:id="rId20" location="!/time/528730"/>
+    <hyperlink ref="C22" r:id="rId21" location="!/time/17887202"/>
+    <hyperlink ref="C23" r:id="rId22" location="!/time/1747619"/>
+    <hyperlink ref="C24" r:id="rId23" location="!/time/13951133"/>
+    <hyperlink ref="C25" r:id="rId24" location="!/time/18346776"/>
+    <hyperlink ref="C26" r:id="rId25" location="!/time/18344271"/>
+    <hyperlink ref="C27" r:id="rId26" location="!/time/44810918"/>
+    <hyperlink ref="C28" r:id="rId27" location="!/time/20340994"/>
+    <hyperlink ref="C29" r:id="rId28" location="!/time/4911779"/>
+    <hyperlink ref="C30" r:id="rId29" location="!/time/25751748"/>
+    <hyperlink ref="C31" r:id="rId30" location="!/time/25401606"/>
+    <hyperlink ref="C32" r:id="rId31" location="!/time/49960687"/>
+    <hyperlink ref="C33" r:id="rId32" location="!/time/14227419"/>
+    <hyperlink ref="C34" r:id="rId33" location="!/time/3708025"/>
+    <hyperlink ref="C35" r:id="rId34" location="!/time/14124559"/>
+    <hyperlink ref="C36" r:id="rId35" location="!/time/2760207"/>
+    <hyperlink ref="C37" r:id="rId36" location="!/time/48498051"/>
+    <hyperlink ref="C38" r:id="rId37" location="!/time/25313333"/>
+    <hyperlink ref="C39" r:id="rId38" location="!/time/47546604"/>
+    <hyperlink ref="C40" r:id="rId39" location="!/time/9823692"/>
+    <hyperlink ref="C41" r:id="rId40" location="!/time/18661583"/>
+    <hyperlink ref="C42" r:id="rId41" location="!/time/3447341"/>
+    <hyperlink ref="C43" r:id="rId42" location="!/time/3246608"/>
+    <hyperlink ref="C44" r:id="rId43" location="!/time/29411306"/>
+    <hyperlink ref="C45" r:id="rId44" location="!/time/18223508"/>
+    <hyperlink ref="C46" r:id="rId45" location="!/time/896842"/>
+    <hyperlink ref="C47" r:id="rId46" location="!/time/5823700"/>
+    <hyperlink ref="C48" r:id="rId47" location="!/time/29228373"/>
+    <hyperlink ref="C49" r:id="rId48" location="!/time/25811332"/>
+    <hyperlink ref="C50" r:id="rId49" location="!/time/1148959"/>
+    <hyperlink ref="C51" r:id="rId50" location="!/time/13707047"/>
+    <hyperlink ref="C52" r:id="rId51" location="!/time/4229593"/>
+    <hyperlink ref="C53" r:id="rId52" location="!/time/47543456"/>
+    <hyperlink ref="C54" r:id="rId53" location="!/time/49180400"/>
+    <hyperlink ref="C55" r:id="rId54" location="!/time/212042"/>
+    <hyperlink ref="C56" r:id="rId55" location="!/time/28676425"/>
+    <hyperlink ref="C57" r:id="rId56" location="!/time/479510"/>
+    <hyperlink ref="C58" r:id="rId57" location="!/time/335716"/>
+    <hyperlink ref="C59" r:id="rId58" location="!/time/1273719"/>
+    <hyperlink ref="C60" r:id="rId59" location="!/time/3424598"/>
+    <hyperlink ref="C61" r:id="rId60" location="!/time/14696986"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
